--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2069563.530925552</v>
+        <v>2104882.28625132</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426806.975891446</v>
+        <v>426806.9758914462</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8362709.48847871</v>
+        <v>8362709.488478716</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>80.83011447495538</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>50.29171516770226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>140.9550140528144</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -788,19 +788,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>175.5171288722966</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>110.9174757594852</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>40.47627913313511</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>18.29749587628862</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -980,10 +980,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>21.0507685937734</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -995,7 +995,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>13.66954222863086</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1025,13 +1025,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="F7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>80.15944383584244</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>68.21015448122992</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>74.21245223256827</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>123.6003327477366</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1262,10 +1262,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>270.3138596262191</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H11" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>68.39969274597627</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T11" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>315.7320981202757</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1457,19 +1457,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>104.7511650703181</v>
       </c>
       <c r="G12" t="n">
         <v>136.64958867533</v>
       </c>
       <c r="H12" t="n">
-        <v>64.7588051995882</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>57.07339698405352</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>158.7937537960548</v>
@@ -1533,19 +1533,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>142.3224937174978</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>150.7617616219096</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,10 +1624,10 @@
         <v>414.005789270132</v>
       </c>
       <c r="H14" t="n">
-        <v>317.4161357862136</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,22 +1654,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>68.39969274597631</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S14" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T14" t="n">
-        <v>217.4184586216305</v>
+        <v>210.7883895528767</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="I15" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S15" t="n">
-        <v>57.47607876877114</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T15" t="n">
         <v>197.3677099213027</v>
@@ -1782,10 +1782,10 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>131.9680216153334</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>123.4811043909673</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>239.6453527417535</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>281.6790599359394</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1928,7 +1928,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>107.8189881592314</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1940,7 +1940,7 @@
         <v>136.64958867533</v>
       </c>
       <c r="H18" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T18" t="n">
-        <v>197.3677099213027</v>
+        <v>104.4814346654897</v>
       </c>
       <c r="U18" t="n">
         <v>225.8957288909827</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>20.23677834405278</v>
+        <v>13.08993799274037</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>193.1445915503825</v>
+        <v>75.28924120030699</v>
       </c>
       <c r="H20" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H21" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>158.7937537960548</v>
       </c>
       <c r="T21" t="n">
-        <v>135.5974673951708</v>
+        <v>185.1380651252356</v>
       </c>
       <c r="U21" t="n">
         <v>225.8957288909827</v>
@@ -2222,7 +2222,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>203.3856315060354</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>225.4598605480533</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>134.7307170396225</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I23" t="n">
-        <v>64.50588568109433</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.4184586216305</v>
+        <v>98.24073253912806</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2402,7 +2402,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2414,10 +2414,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H24" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S24" t="n">
         <v>158.7937537960548</v>
@@ -2459,10 +2459,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>135.2154207685716</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>112.8867099476644</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>124.4544989107807</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.141326929176249</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2563,19 +2563,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>156.1476216117421</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>129.5891700052622</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2645,13 +2645,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.64958867533</v>
+        <v>83.29896986725154</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S27" t="n">
-        <v>122.9808755242954</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T27" t="n">
         <v>197.3677099213027</v>
@@ -2715,22 +2715,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>46.75958868346244</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T28" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>66.35202155932413</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H29" t="n">
-        <v>148.9977460153653</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>41.77916833032208</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2882,10 +2882,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>97.02351126992262</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H30" t="n">
         <v>105.5335559456492</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>105.4431349879765</v>
       </c>
       <c r="T30" t="n">
         <v>197.3677099213027</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>41.89609790246497</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U31" t="n">
-        <v>150.7617616219094</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3034,19 +3034,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>296.0015760031221</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3088,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>210.6566863456938</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3125,7 +3125,7 @@
         <v>136.64958867533</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>122.9808755242954</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T33" t="n">
         <v>197.3677099213027</v>
@@ -3173,7 +3173,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>64.42655098606885</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3189,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>122.0973023537475</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S34" t="n">
-        <v>115.0023163827308</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>326.1924309016296</v>
+        <v>161.1970154091581</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>70.26977904937502</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3359,7 +3359,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>43.76331341951682</v>
+        <v>43.76331341951727</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S36" t="n">
         <v>158.7937537960548</v>
@@ -3426,19 +3426,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>104.8102362067274</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>220.8871739987544</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.005789270132</v>
+        <v>362.7726904363167</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V38" t="n">
-        <v>108.9080392952961</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S39" t="n">
         <v>158.7937537960548</v>
@@ -3644,13 +3644,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>110.3485489435109</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>147.5310530237956</v>
       </c>
     </row>
     <row r="40">
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>220.8871739987544</v>
+        <v>199.9063665998298</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>75.46400677165994</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>62.7442152153677</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3830,16 +3830,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>107.0403133273799</v>
       </c>
       <c r="G42" t="n">
-        <v>43.76331341951682</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8957288909827</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H43" t="n">
-        <v>146.5623749521075</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>225.4598605480533</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>35.97641848124702</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3979,22 +3979,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>26.73110927253575</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,16 +4033,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>148.1471428537447</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4067,13 +4067,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>140.3723668513051</v>
       </c>
       <c r="G45" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U45" t="n">
-        <v>190.0828506192233</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>9.298635705472273</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>35.97641848124702</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53.75394372784808</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C2" t="n">
-        <v>53.75394372784808</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="D2" t="n">
-        <v>53.75394372784808</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="E2" t="n">
-        <v>53.75394372784808</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4366,16 +4366,16 @@
         <v>591.4512093066566</v>
       </c>
       <c r="V2" t="n">
-        <v>348.0024326625565</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W2" t="n">
-        <v>348.0024326625565</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X2" t="n">
-        <v>104.5536560184564</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y2" t="n">
-        <v>53.75394372784808</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>547.0914794406409</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>372.6384501595139</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4412,16 +4412,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4436,25 +4436,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>660.701031422288</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>432.4774131586771</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V3" t="n">
-        <v>197.3253049269343</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W3" t="n">
-        <v>20.03527576299844</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X3" t="n">
-        <v>20.03527576299844</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.03527576299844</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>559.1338160830064</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C5" t="n">
-        <v>559.1338160830064</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D5" t="n">
-        <v>559.1338160830064</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E5" t="n">
-        <v>315.6850394389064</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F5" t="n">
-        <v>72.23626279480629</v>
+        <v>65.29076204560282</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>49.83345142425428</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>49.83345142425428</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>689.4702815141908</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="C6" t="n">
-        <v>689.4702815141908</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>285.9428551855621</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>147.2120297681776</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>33.84289417575688</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4649,13 +4649,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
         <v>725.4530095217538</v>
@@ -4673,25 +4673,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>689.4702815141908</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U6" t="n">
-        <v>689.4702815141908</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V6" t="n">
-        <v>689.4702815141908</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="W6" t="n">
-        <v>689.4702815141908</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="X6" t="n">
-        <v>689.4702815141908</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="Y6" t="n">
-        <v>689.4702815141908</v>
+        <v>432.4774131586771</v>
       </c>
     </row>
     <row r="7">
@@ -4710,7 +4710,7 @@
         <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
         <v>41.77557929797318</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41.68395448076474</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C8" t="n">
-        <v>41.68395448076474</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D8" t="n">
-        <v>41.68395448076474</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E8" t="n">
-        <v>41.68395448076474</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4840,16 +4840,16 @@
         <v>366.1018663125844</v>
       </c>
       <c r="V8" t="n">
-        <v>285.1327311248648</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W8" t="n">
-        <v>285.1327311248648</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X8" t="n">
-        <v>41.68395448076474</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="Y8" t="n">
-        <v>41.68395448076474</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>787.9255531013317</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C9" t="n">
-        <v>613.4725238202047</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="D9" t="n">
-        <v>464.5381141589534</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E9" t="n">
-        <v>305.3006591534979</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F9" t="n">
-        <v>158.7661011803829</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4910,25 +4910,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V9" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W9" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X9" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y9" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
         <v>41.77557929797318</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1231.635279959741</v>
+        <v>1236.259021858348</v>
       </c>
       <c r="C11" t="n">
-        <v>1231.635279959741</v>
+        <v>1236.259021858348</v>
       </c>
       <c r="D11" t="n">
-        <v>1231.635279959741</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="E11" t="n">
-        <v>1231.635279959741</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F11" t="n">
-        <v>958.5909773069948</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G11" t="n">
-        <v>540.4033113775685</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H11" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I11" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J11" t="n">
         <v>145.966048569732</v>
@@ -5047,7 +5047,7 @@
         <v>412.3079679977591</v>
       </c>
       <c r="L11" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540043</v>
       </c>
       <c r="M11" t="n">
         <v>1237.436361307048</v>
@@ -5059,34 +5059,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P11" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q11" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R11" t="n">
-        <v>2371.897027894855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S11" t="n">
-        <v>2190.618379962291</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T11" t="n">
-        <v>1971.003775293977</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="U11" t="n">
-        <v>1971.003775293977</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="V11" t="n">
-        <v>1971.003775293977</v>
+        <v>1928.646091352029</v>
       </c>
       <c r="W11" t="n">
-        <v>1618.235120023863</v>
+        <v>1609.724780119427</v>
       </c>
       <c r="X11" t="n">
-        <v>1618.235120023863</v>
+        <v>1236.259021858348</v>
       </c>
       <c r="Y11" t="n">
-        <v>1618.235120023863</v>
+        <v>1236.259021858348</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>722.1845715439335</v>
+        <v>948.0498045074896</v>
       </c>
       <c r="C12" t="n">
-        <v>547.7315422628066</v>
+        <v>773.5967752263626</v>
       </c>
       <c r="D12" t="n">
-        <v>398.7971326015553</v>
+        <v>624.6623655651114</v>
       </c>
       <c r="E12" t="n">
-        <v>398.7971326015553</v>
+        <v>465.4249105596559</v>
       </c>
       <c r="F12" t="n">
-        <v>252.2625746284403</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G12" t="n">
-        <v>114.2326870776019</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H12" t="n">
-        <v>48.81975253256328</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I12" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J12" t="n">
-        <v>112.9860412505445</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K12" t="n">
-        <v>349.2772920404816</v>
+        <v>318.2287647883252</v>
       </c>
       <c r="L12" t="n">
-        <v>728.4044351658749</v>
+        <v>697.3559079137185</v>
       </c>
       <c r="M12" t="n">
-        <v>1222.807150561438</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N12" t="n">
-        <v>1557.865593173221</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O12" t="n">
-        <v>1970.07121469245</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q12" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R12" t="n">
-        <v>2383.337730684676</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S12" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T12" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U12" t="n">
-        <v>1795.401172494433</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V12" t="n">
-        <v>1560.24906426269</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W12" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X12" t="n">
-        <v>1098.160207328955</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y12" t="n">
-        <v>890.3999085640016</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>351.2209996437977</v>
+        <v>198.936391944899</v>
       </c>
       <c r="C13" t="n">
-        <v>351.2209996437977</v>
+        <v>198.936391944899</v>
       </c>
       <c r="D13" t="n">
-        <v>351.2209996437977</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E13" t="n">
-        <v>351.2209996437977</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F13" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G13" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H13" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I13" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J13" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K13" t="n">
-        <v>93.68771932371205</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L13" t="n">
-        <v>206.6297039190409</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M13" t="n">
-        <v>336.100314134576</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N13" t="n">
-        <v>467.9270190420814</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O13" t="n">
-        <v>573.6740222801512</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P13" t="n">
-        <v>640.6381696807583</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q13" t="n">
-        <v>640.6381696807583</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R13" t="n">
-        <v>640.6381696807583</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S13" t="n">
-        <v>640.6381696807583</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T13" t="n">
-        <v>640.6381696807583</v>
+        <v>488.3535619818596</v>
       </c>
       <c r="U13" t="n">
-        <v>640.6381696807583</v>
+        <v>488.3535619818596</v>
       </c>
       <c r="V13" t="n">
-        <v>640.6381696807583</v>
+        <v>488.3535619818596</v>
       </c>
       <c r="W13" t="n">
-        <v>351.2209996437977</v>
+        <v>198.936391944899</v>
       </c>
       <c r="X13" t="n">
-        <v>351.2209996437977</v>
+        <v>198.936391944899</v>
       </c>
       <c r="Y13" t="n">
-        <v>351.2209996437977</v>
+        <v>198.936391944899</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1584.403935229855</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="C14" t="n">
-        <v>1584.403935229855</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="D14" t="n">
-        <v>1584.403935229855</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="E14" t="n">
-        <v>1198.615682631611</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="F14" t="n">
-        <v>787.6297778420033</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="G14" t="n">
-        <v>369.442111912577</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H14" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I14" t="n">
         <v>48.81975253256327</v>
@@ -5281,7 +5281,7 @@
         <v>145.966048569732</v>
       </c>
       <c r="K14" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L14" t="n">
         <v>795.0052981540048</v>
@@ -5308,22 +5308,22 @@
         <v>2190.61837996229</v>
       </c>
       <c r="T14" t="n">
-        <v>1971.003775293977</v>
+        <v>1977.700814757364</v>
       </c>
       <c r="U14" t="n">
-        <v>1971.003775293977</v>
+        <v>1723.921120769247</v>
       </c>
       <c r="V14" t="n">
-        <v>1971.003775293977</v>
+        <v>1392.858233425676</v>
       </c>
       <c r="W14" t="n">
-        <v>1971.003775293977</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="X14" t="n">
-        <v>1971.003775293977</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="Y14" t="n">
-        <v>1971.003775293977</v>
+        <v>1040.089578155562</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>882.175553373567</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C15" t="n">
-        <v>707.72252409244</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D15" t="n">
-        <v>558.7881144311888</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E15" t="n">
-        <v>399.5506594257333</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F15" t="n">
-        <v>253.0161014526182</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G15" t="n">
-        <v>114.9862139017798</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="H15" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I15" t="n">
         <v>48.81975253256327</v>
@@ -5363,7 +5363,7 @@
         <v>349.2772920404815</v>
       </c>
       <c r="L15" t="n">
-        <v>728.4044351658747</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M15" t="n">
         <v>1222.807150561437</v>
@@ -5381,28 +5381,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R15" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S15" t="n">
-        <v>2382.930981407183</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T15" t="n">
-        <v>2183.569658254351</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U15" t="n">
-        <v>1955.392154324066</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V15" t="n">
-        <v>1720.240046092323</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W15" t="n">
-        <v>1466.002689364122</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X15" t="n">
-        <v>1258.151189158589</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y15" t="n">
-        <v>1050.390890393635</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>217.9199677091171</v>
+        <v>515.9097814070539</v>
       </c>
       <c r="C16" t="n">
-        <v>217.9199677091171</v>
+        <v>515.9097814070539</v>
       </c>
       <c r="D16" t="n">
-        <v>217.9199677091171</v>
+        <v>515.9097814070539</v>
       </c>
       <c r="E16" t="n">
-        <v>217.9199677091171</v>
+        <v>515.9097814070539</v>
       </c>
       <c r="F16" t="n">
-        <v>217.9199677091171</v>
+        <v>515.9097814070539</v>
       </c>
       <c r="G16" t="n">
-        <v>48.81975253256327</v>
+        <v>346.8095662305</v>
       </c>
       <c r="H16" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I16" t="n">
         <v>48.81975253256327</v>
@@ -5445,43 +5445,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M16" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N16" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O16" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P16" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q16" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R16" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S16" t="n">
-        <v>507.3371377460778</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T16" t="n">
-        <v>507.3371377460778</v>
+        <v>515.9097814070539</v>
       </c>
       <c r="U16" t="n">
-        <v>507.3371377460778</v>
+        <v>515.9097814070539</v>
       </c>
       <c r="V16" t="n">
-        <v>507.3371377460778</v>
+        <v>515.9097814070539</v>
       </c>
       <c r="W16" t="n">
-        <v>217.9199677091171</v>
+        <v>515.9097814070539</v>
       </c>
       <c r="X16" t="n">
-        <v>217.9199677091171</v>
+        <v>515.9097814070539</v>
       </c>
       <c r="Y16" t="n">
-        <v>217.9199677091171</v>
+        <v>515.9097814070539</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1324.613881121158</v>
+        <v>1070.834187133041</v>
       </c>
       <c r="C17" t="n">
-        <v>1324.613881121158</v>
+        <v>701.8716701926289</v>
       </c>
       <c r="D17" t="n">
-        <v>1324.613881121158</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="E17" t="n">
-        <v>1324.613881121158</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="F17" t="n">
-        <v>913.6279763315501</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G17" t="n">
-        <v>495.4403104021239</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H17" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I17" t="n">
         <v>48.81975253256327</v>
@@ -5518,10 +5518,10 @@
         <v>145.966048569732</v>
       </c>
       <c r="K17" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L17" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540043</v>
       </c>
       <c r="M17" t="n">
         <v>1237.436361307048</v>
@@ -5548,19 +5548,19 @@
         <v>2440.987626628164</v>
       </c>
       <c r="U17" t="n">
-        <v>2440.987626628164</v>
+        <v>2187.207932640046</v>
       </c>
       <c r="V17" t="n">
-        <v>2440.987626628164</v>
+        <v>2187.207932640046</v>
       </c>
       <c r="W17" t="n">
-        <v>2088.218971358049</v>
+        <v>1834.439277369932</v>
       </c>
       <c r="X17" t="n">
-        <v>1714.753213096969</v>
+        <v>1460.973519108852</v>
       </c>
       <c r="Y17" t="n">
-        <v>1324.613881121158</v>
+        <v>1070.834187133041</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>882.5823026510593</v>
+        <v>816.0090920043505</v>
       </c>
       <c r="C18" t="n">
-        <v>708.1292733699323</v>
+        <v>641.5560627232235</v>
       </c>
       <c r="D18" t="n">
-        <v>599.2212045222238</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E18" t="n">
-        <v>439.9837495167684</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F18" t="n">
-        <v>293.4491915436533</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G18" t="n">
-        <v>155.4193039928149</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H18" t="n">
         <v>48.81975253256327</v>
@@ -5597,10 +5597,10 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K18" t="n">
-        <v>285.1110033225003</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L18" t="n">
-        <v>664.2381464478935</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M18" t="n">
         <v>1158.640861843456</v>
@@ -5621,25 +5621,25 @@
         <v>2383.337730684675</v>
       </c>
       <c r="S18" t="n">
-        <v>2383.337730684675</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T18" t="n">
-        <v>2183.976407531844</v>
+        <v>2117.403196885135</v>
       </c>
       <c r="U18" t="n">
-        <v>1955.798903601558</v>
+        <v>1889.225692954849</v>
       </c>
       <c r="V18" t="n">
-        <v>1720.646795369816</v>
+        <v>1654.073584723107</v>
       </c>
       <c r="W18" t="n">
-        <v>1466.409438641614</v>
+        <v>1399.836227994905</v>
       </c>
       <c r="X18" t="n">
-        <v>1258.557938436081</v>
+        <v>1191.984727789372</v>
       </c>
       <c r="Y18" t="n">
-        <v>1050.797639671127</v>
+        <v>984.2244290244184</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>238.1971257069881</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="C19" t="n">
-        <v>69.26094277908123</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="D19" t="n">
-        <v>69.26094277908123</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="E19" t="n">
-        <v>69.26094277908123</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="F19" t="n">
-        <v>69.26094277908123</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="G19" t="n">
         <v>48.81975253256327</v>
@@ -5682,43 +5682,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M19" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N19" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O19" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P19" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q19" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R19" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S19" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T19" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U19" t="n">
-        <v>640.638169680758</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V19" t="n">
-        <v>640.638169680758</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="W19" t="n">
-        <v>640.638169680758</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="X19" t="n">
-        <v>640.638169680758</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="Y19" t="n">
-        <v>419.8455905372278</v>
+        <v>62.04191212118991</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1328.153373032848</v>
+        <v>868.9234423237267</v>
       </c>
       <c r="C20" t="n">
-        <v>959.190856092436</v>
+        <v>868.9234423237267</v>
       </c>
       <c r="D20" t="n">
-        <v>959.190856092436</v>
+        <v>510.6577437169762</v>
       </c>
       <c r="E20" t="n">
-        <v>573.4026034941917</v>
+        <v>124.869491118732</v>
       </c>
       <c r="F20" t="n">
-        <v>573.4026034941917</v>
+        <v>124.869491118732</v>
       </c>
       <c r="G20" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H20" t="n">
         <v>48.81975253256327</v>
@@ -5776,28 +5776,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R20" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S20" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T20" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U20" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="V20" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="W20" t="n">
-        <v>2088.218971358049</v>
+        <v>2019.12837262474</v>
       </c>
       <c r="X20" t="n">
-        <v>1714.753213096969</v>
+        <v>1645.66261436366</v>
       </c>
       <c r="Y20" t="n">
-        <v>1714.753213096969</v>
+        <v>1255.523282387848</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>784.5787559137638</v>
+        <v>988.7751048338188</v>
       </c>
       <c r="C21" t="n">
-        <v>610.1257266326368</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D21" t="n">
-        <v>461.1913169713854</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E21" t="n">
-        <v>301.9538619659299</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F21" t="n">
-        <v>155.4193039928149</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G21" t="n">
-        <v>155.4193039928149</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H21" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I21" t="n">
         <v>48.81975253256327</v>
@@ -5843,10 +5843,10 @@
         <v>1222.807150561437</v>
       </c>
       <c r="N21" t="n">
-        <v>1746.002248079784</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O21" t="n">
-        <v>2158.207869599013</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P21" t="n">
         <v>2283.899498973758</v>
@@ -5861,22 +5861,22 @@
         <v>2222.939999577549</v>
       </c>
       <c r="T21" t="n">
-        <v>2085.972860794548</v>
+        <v>2035.931852986402</v>
       </c>
       <c r="U21" t="n">
-        <v>1857.795356864263</v>
+        <v>1807.754349056116</v>
       </c>
       <c r="V21" t="n">
-        <v>1622.64324863252</v>
+        <v>1572.602240824373</v>
       </c>
       <c r="W21" t="n">
-        <v>1368.405891904318</v>
+        <v>1572.602240824373</v>
       </c>
       <c r="X21" t="n">
-        <v>1160.554391698786</v>
+        <v>1364.750740618841</v>
       </c>
       <c r="Y21" t="n">
-        <v>952.7940929338317</v>
+        <v>1156.990441853887</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C22" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D22" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E22" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F22" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G22" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H22" t="n">
         <v>48.81975253256327</v>
@@ -5937,25 +5937,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S22" t="n">
-        <v>435.1981378564801</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T22" t="n">
-        <v>207.4609049796586</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U22" t="n">
-        <v>207.4609049796586</v>
+        <v>276.8093034305806</v>
       </c>
       <c r="V22" t="n">
-        <v>207.4609049796586</v>
+        <v>276.8093034305806</v>
       </c>
       <c r="W22" t="n">
-        <v>207.4609049796586</v>
+        <v>276.8093034305806</v>
       </c>
       <c r="X22" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y22" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>841.2054283636592</v>
+        <v>1284.457262582563</v>
       </c>
       <c r="C23" t="n">
-        <v>472.2429114232474</v>
+        <v>1284.457262582563</v>
       </c>
       <c r="D23" t="n">
-        <v>113.9772128164969</v>
+        <v>926.1915639758126</v>
       </c>
       <c r="E23" t="n">
-        <v>113.9772128164969</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="F23" t="n">
-        <v>113.9772128164969</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="G23" t="n">
-        <v>113.9772128164969</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H23" t="n">
-        <v>113.9772128164969</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I23" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J23" t="n">
-        <v>145.9660485697319</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K23" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L23" t="n">
         <v>795.0052981540045</v>
@@ -6013,28 +6013,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R23" t="n">
-        <v>2371.897027894855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S23" t="n">
-        <v>2371.897027894855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T23" t="n">
-        <v>2152.282423226541</v>
+        <v>2341.754563457328</v>
       </c>
       <c r="U23" t="n">
-        <v>1898.502729238424</v>
+        <v>2341.754563457328</v>
       </c>
       <c r="V23" t="n">
-        <v>1567.439841894853</v>
+        <v>2010.691676113757</v>
       </c>
       <c r="W23" t="n">
-        <v>1214.671186624739</v>
+        <v>1657.923020843643</v>
       </c>
       <c r="X23" t="n">
-        <v>841.2054283636592</v>
+        <v>1284.457262582563</v>
       </c>
       <c r="Y23" t="n">
-        <v>841.2054283636592</v>
+        <v>1284.457262582563</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>839.8406951725675</v>
+        <v>816.0090920043505</v>
       </c>
       <c r="C24" t="n">
-        <v>665.3876658914405</v>
+        <v>641.5560627232235</v>
       </c>
       <c r="D24" t="n">
-        <v>665.3876658914405</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E24" t="n">
-        <v>506.150210885985</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F24" t="n">
-        <v>359.6156529128699</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G24" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H24" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I24" t="n">
         <v>48.81975253256327</v>
@@ -6074,16 +6074,16 @@
         <v>349.2772920404815</v>
       </c>
       <c r="L24" t="n">
-        <v>728.4044351658747</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M24" t="n">
         <v>1222.807150561437</v>
       </c>
       <c r="N24" t="n">
-        <v>1557.865593173221</v>
+        <v>1746.002248079784</v>
       </c>
       <c r="O24" t="n">
-        <v>1970.07121469245</v>
+        <v>2158.207869599013</v>
       </c>
       <c r="P24" t="n">
         <v>2283.899498973758</v>
@@ -6107,13 +6107,13 @@
         <v>1560.249064262689</v>
       </c>
       <c r="W24" t="n">
-        <v>1423.667831163122</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X24" t="n">
-        <v>1215.816330957589</v>
+        <v>1191.984727789372</v>
       </c>
       <c r="Y24" t="n">
-        <v>1008.056032192635</v>
+        <v>984.2244290244184</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>640.638169680758</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="C25" t="n">
-        <v>640.638169680758</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="D25" t="n">
-        <v>490.5215302684222</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="E25" t="n">
-        <v>490.5215302684222</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F25" t="n">
-        <v>343.6315827705118</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G25" t="n">
-        <v>174.531367593958</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H25" t="n">
         <v>48.81975253256327</v>
@@ -6156,43 +6156,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M25" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N25" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O25" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S25" t="n">
-        <v>640.638169680758</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T25" t="n">
-        <v>640.638169680758</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="U25" t="n">
-        <v>640.638169680758</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="V25" t="n">
-        <v>640.638169680758</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="W25" t="n">
-        <v>640.638169680758</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="X25" t="n">
-        <v>640.638169680758</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="Y25" t="n">
-        <v>640.638169680758</v>
+        <v>195.7097000304736</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1290.78269632715</v>
+        <v>1320.351733107588</v>
       </c>
       <c r="C26" t="n">
-        <v>921.8201793867386</v>
+        <v>951.3892161671761</v>
       </c>
       <c r="D26" t="n">
-        <v>921.8201793867386</v>
+        <v>951.3892161671761</v>
       </c>
       <c r="E26" t="n">
-        <v>536.0319267884943</v>
+        <v>951.3892161671761</v>
       </c>
       <c r="F26" t="n">
-        <v>536.0319267884943</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="G26" t="n">
-        <v>378.3070564736033</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H26" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I26" t="n">
         <v>48.81975253256327</v>
@@ -6250,28 +6250,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R26" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S26" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T26" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="U26" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="V26" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="W26" t="n">
-        <v>2440.987626628164</v>
+        <v>1837.849724692176</v>
       </c>
       <c r="X26" t="n">
-        <v>2067.521868367084</v>
+        <v>1706.951573171709</v>
       </c>
       <c r="Y26" t="n">
-        <v>1677.382536391272</v>
+        <v>1706.951573171709</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>816.0090920043505</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C27" t="n">
-        <v>641.5560627232235</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D27" t="n">
-        <v>492.6216530619722</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E27" t="n">
-        <v>333.3841980565167</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F27" t="n">
-        <v>186.8496400834017</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="G27" t="n">
-        <v>48.81975253256327</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H27" t="n">
         <v>48.81975253256327</v>
@@ -6311,46 +6311,46 @@
         <v>349.2772920404815</v>
       </c>
       <c r="L27" t="n">
-        <v>728.4044351658747</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M27" t="n">
         <v>1222.807150561437</v>
       </c>
       <c r="N27" t="n">
-        <v>1746.002248079783</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O27" t="n">
-        <v>2158.207869599012</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P27" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q27" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R27" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S27" t="n">
-        <v>2316.764520037966</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T27" t="n">
-        <v>2117.403196885135</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U27" t="n">
-        <v>1889.225692954849</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V27" t="n">
-        <v>1654.073584723107</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W27" t="n">
-        <v>1399.836227994905</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X27" t="n">
-        <v>1191.984727789372</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y27" t="n">
-        <v>984.2244290244184</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>412.9009368039365</v>
+        <v>357.5775443919943</v>
       </c>
       <c r="C28" t="n">
-        <v>243.9647538760296</v>
+        <v>357.5775443919943</v>
       </c>
       <c r="D28" t="n">
-        <v>243.9647538760296</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="E28" t="n">
-        <v>96.05166029363644</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="F28" t="n">
-        <v>96.05166029363644</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="G28" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H28" t="n">
         <v>48.81975253256327</v>
@@ -6393,43 +6393,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M28" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N28" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O28" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P28" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q28" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R28" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S28" t="n">
-        <v>640.638169680758</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T28" t="n">
-        <v>412.9009368039365</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="U28" t="n">
-        <v>412.9009368039365</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="V28" t="n">
-        <v>412.9009368039365</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="W28" t="n">
-        <v>412.9009368039365</v>
+        <v>357.5775443919943</v>
       </c>
       <c r="X28" t="n">
-        <v>412.9009368039365</v>
+        <v>357.5775443919943</v>
       </c>
       <c r="Y28" t="n">
-        <v>412.9009368039365</v>
+        <v>357.5775443919943</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1723.324899220471</v>
+        <v>1622.047274456592</v>
       </c>
       <c r="C29" t="n">
-        <v>1354.36238228006</v>
+        <v>1622.047274456592</v>
       </c>
       <c r="D29" t="n">
-        <v>996.0966836733094</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E29" t="n">
-        <v>610.3084310750651</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F29" t="n">
-        <v>199.3225262854575</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G29" t="n">
-        <v>199.3225262854575</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H29" t="n">
         <v>48.81975253256327</v>
@@ -6463,13 +6463,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J29" t="n">
-        <v>145.9660485697319</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K29" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L29" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540043</v>
       </c>
       <c r="M29" t="n">
         <v>1237.436361307048</v>
@@ -6481,7 +6481,7 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P29" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q29" t="n">
         <v>2440.987626628164</v>
@@ -6493,22 +6493,22 @@
         <v>2440.987626628164</v>
       </c>
       <c r="T29" t="n">
-        <v>2440.987626628164</v>
+        <v>2398.786446496525</v>
       </c>
       <c r="U29" t="n">
-        <v>2440.987626628164</v>
+        <v>2398.786446496525</v>
       </c>
       <c r="V29" t="n">
-        <v>2109.924739284593</v>
+        <v>2398.786446496525</v>
       </c>
       <c r="W29" t="n">
-        <v>2109.924739284593</v>
+        <v>2398.786446496525</v>
       </c>
       <c r="X29" t="n">
-        <v>2109.924739284593</v>
+        <v>2398.786446496525</v>
       </c>
       <c r="Y29" t="n">
-        <v>2109.924739284593</v>
+        <v>2008.647114520714</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>882.5823026510593</v>
+        <v>776.0740854914872</v>
       </c>
       <c r="C30" t="n">
-        <v>708.1292733699323</v>
+        <v>601.6210562103602</v>
       </c>
       <c r="D30" t="n">
-        <v>559.1948637086811</v>
+        <v>452.6866465491088</v>
       </c>
       <c r="E30" t="n">
-        <v>399.9574087032256</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="F30" t="n">
-        <v>253.4228507301105</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G30" t="n">
         <v>155.4193039928149</v>
@@ -6542,22 +6542,22 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J30" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K30" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L30" t="n">
-        <v>728.4044351658747</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M30" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N30" t="n">
-        <v>1746.002248079783</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O30" t="n">
-        <v>2158.207869599012</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P30" t="n">
         <v>2283.899498973758</v>
@@ -6569,25 +6569,25 @@
         <v>2383.337730684675</v>
       </c>
       <c r="S30" t="n">
-        <v>2383.337730684675</v>
+        <v>2276.829513525103</v>
       </c>
       <c r="T30" t="n">
-        <v>2183.976407531844</v>
+        <v>2077.468190372272</v>
       </c>
       <c r="U30" t="n">
-        <v>1955.798903601558</v>
+        <v>1849.290686441986</v>
       </c>
       <c r="V30" t="n">
-        <v>1720.646795369816</v>
+        <v>1614.138578210243</v>
       </c>
       <c r="W30" t="n">
-        <v>1466.409438641614</v>
+        <v>1359.901221482042</v>
       </c>
       <c r="X30" t="n">
-        <v>1258.557938436081</v>
+        <v>1152.049721276509</v>
       </c>
       <c r="Y30" t="n">
-        <v>1050.797639671127</v>
+        <v>944.2894225115551</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>198.936391944899</v>
+        <v>260.2392585196878</v>
       </c>
       <c r="C31" t="n">
-        <v>198.936391944899</v>
+        <v>260.2392585196878</v>
       </c>
       <c r="D31" t="n">
-        <v>48.81975253256327</v>
+        <v>260.2392585196878</v>
       </c>
       <c r="E31" t="n">
-        <v>48.81975253256327</v>
+        <v>260.2392585196878</v>
       </c>
       <c r="F31" t="n">
-        <v>48.81975253256327</v>
+        <v>260.2392585196878</v>
       </c>
       <c r="G31" t="n">
-        <v>48.81975253256327</v>
+        <v>91.13904334313395</v>
       </c>
       <c r="H31" t="n">
         <v>48.81975253256327</v>
@@ -6630,43 +6630,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M31" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N31" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O31" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P31" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q31" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R31" t="n">
-        <v>640.638169680758</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="S31" t="n">
-        <v>640.638169680758</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="T31" t="n">
-        <v>640.638169680758</v>
+        <v>260.2392585196878</v>
       </c>
       <c r="U31" t="n">
-        <v>488.3535619818596</v>
+        <v>260.2392585196878</v>
       </c>
       <c r="V31" t="n">
-        <v>488.3535619818596</v>
+        <v>260.2392585196878</v>
       </c>
       <c r="W31" t="n">
-        <v>198.936391944899</v>
+        <v>260.2392585196878</v>
       </c>
       <c r="X31" t="n">
-        <v>198.936391944899</v>
+        <v>260.2392585196878</v>
       </c>
       <c r="Y31" t="n">
-        <v>198.936391944899</v>
+        <v>260.2392585196878</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1091.865194649803</v>
+        <v>789.2929612632108</v>
       </c>
       <c r="C32" t="n">
-        <v>1091.865194649803</v>
+        <v>789.2929612632108</v>
       </c>
       <c r="D32" t="n">
-        <v>733.5994960430521</v>
+        <v>789.2929612632108</v>
       </c>
       <c r="E32" t="n">
-        <v>347.8112434448079</v>
+        <v>789.2929612632108</v>
       </c>
       <c r="F32" t="n">
-        <v>347.8112434448079</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="G32" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H32" t="n">
         <v>48.81975253256327</v>
@@ -6703,7 +6703,7 @@
         <v>145.966048569732</v>
       </c>
       <c r="K32" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L32" t="n">
         <v>795.0052981540045</v>
@@ -6718,34 +6718,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P32" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q32" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R32" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="S32" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="T32" t="n">
-        <v>2221.37302195985</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U32" t="n">
-        <v>2221.37302195985</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="V32" t="n">
-        <v>2221.37302195985</v>
+        <v>1939.497891564224</v>
       </c>
       <c r="W32" t="n">
-        <v>1868.604366689736</v>
+        <v>1939.497891564224</v>
       </c>
       <c r="X32" t="n">
-        <v>1868.604366689736</v>
+        <v>1566.032133303144</v>
       </c>
       <c r="Y32" t="n">
-        <v>1478.465034713924</v>
+        <v>1175.892801327333</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>816.0090920043505</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C33" t="n">
-        <v>641.5560627232235</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D33" t="n">
-        <v>492.6216530619722</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E33" t="n">
-        <v>333.3841980565167</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F33" t="n">
-        <v>186.8496400834017</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G33" t="n">
-        <v>48.81975253256327</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H33" t="n">
         <v>48.81975253256327</v>
@@ -6779,25 +6779,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J33" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K33" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L33" t="n">
-        <v>728.4044351658747</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M33" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N33" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O33" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q33" t="n">
         <v>2440.987626628164</v>
@@ -6806,25 +6806,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S33" t="n">
-        <v>2316.764520037966</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T33" t="n">
-        <v>2117.403196885135</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U33" t="n">
-        <v>1889.225692954849</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V33" t="n">
-        <v>1654.073584723107</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W33" t="n">
-        <v>1399.836227994905</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X33" t="n">
-        <v>1191.984727789372</v>
+        <v>1298.584279249624</v>
       </c>
       <c r="Y33" t="n">
-        <v>984.2244290244184</v>
+        <v>1090.82398048467</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>524.4742137386056</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="C34" t="n">
-        <v>524.4742137386056</v>
+        <v>319.0403084686025</v>
       </c>
       <c r="D34" t="n">
-        <v>524.4742137386056</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="E34" t="n">
-        <v>376.5611201562124</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F34" t="n">
-        <v>376.5611201562124</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G34" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H34" t="n">
         <v>48.81975253256327</v>
@@ -6867,43 +6867,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M34" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N34" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O34" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P34" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q34" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R34" t="n">
-        <v>640.638169680758</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="S34" t="n">
-        <v>524.4742137386056</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="T34" t="n">
-        <v>524.4742137386056</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="U34" t="n">
-        <v>524.4742137386056</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="V34" t="n">
-        <v>524.4742137386056</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="W34" t="n">
-        <v>524.4742137386056</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="X34" t="n">
-        <v>524.4742137386056</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="Y34" t="n">
-        <v>524.4742137386056</v>
+        <v>487.9764913965093</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1593.268879790881</v>
+        <v>1349.859140959392</v>
       </c>
       <c r="C35" t="n">
-        <v>1593.268879790881</v>
+        <v>980.89662401898</v>
       </c>
       <c r="D35" t="n">
-        <v>1593.268879790881</v>
+        <v>622.6309254122295</v>
       </c>
       <c r="E35" t="n">
-        <v>1207.480627192637</v>
+        <v>622.6309254122295</v>
       </c>
       <c r="F35" t="n">
-        <v>796.4947224030295</v>
+        <v>211.645020622622</v>
       </c>
       <c r="G35" t="n">
-        <v>378.3070564736033</v>
+        <v>211.645020622622</v>
       </c>
       <c r="H35" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I35" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J35" t="n">
         <v>145.9660485697318</v>
       </c>
       <c r="K35" t="n">
-        <v>412.3079679977591</v>
+        <v>412.3079679977593</v>
       </c>
       <c r="L35" t="n">
-        <v>795.0052981540048</v>
+        <v>795.005298154005</v>
       </c>
       <c r="M35" t="n">
-        <v>1237.436361307048</v>
+        <v>1237.436361307049</v>
       </c>
       <c r="N35" t="n">
         <v>1672.394424063531</v>
@@ -6955,7 +6955,7 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P35" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q35" t="n">
         <v>2440.987626628164</v>
@@ -6967,22 +6967,22 @@
         <v>2440.987626628164</v>
       </c>
       <c r="T35" t="n">
-        <v>2370.008051830815</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U35" t="n">
-        <v>2370.008051830815</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V35" t="n">
-        <v>2370.008051830815</v>
+        <v>2109.924739284593</v>
       </c>
       <c r="W35" t="n">
-        <v>2370.008051830815</v>
+        <v>2109.924739284593</v>
       </c>
       <c r="X35" t="n">
-        <v>2370.008051830815</v>
+        <v>1736.458981023513</v>
       </c>
       <c r="Y35" t="n">
-        <v>1979.868719855003</v>
+        <v>1736.458981023513</v>
       </c>
     </row>
     <row r="36">
@@ -6992,55 +6992,55 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>722.1845715439331</v>
+        <v>722.1845715439335</v>
       </c>
       <c r="C36" t="n">
-        <v>547.7315422628061</v>
+        <v>547.7315422628066</v>
       </c>
       <c r="D36" t="n">
-        <v>398.7971326015548</v>
+        <v>398.7971326015553</v>
       </c>
       <c r="E36" t="n">
-        <v>239.5596775960993</v>
+        <v>239.5596775960998</v>
       </c>
       <c r="F36" t="n">
-        <v>93.02511962298431</v>
+        <v>93.02511962298476</v>
       </c>
       <c r="G36" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H36" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I36" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J36" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K36" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L36" t="n">
-        <v>728.4044351658747</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M36" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N36" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O36" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q36" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R36" t="n">
-        <v>2383.337730684675</v>
+        <v>2383.337730684676</v>
       </c>
       <c r="S36" t="n">
         <v>2222.939999577549</v>
@@ -7049,10 +7049,10 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U36" t="n">
-        <v>1795.401172494432</v>
+        <v>1795.401172494433</v>
       </c>
       <c r="V36" t="n">
-        <v>1560.249064262689</v>
+        <v>1560.24906426269</v>
       </c>
       <c r="W36" t="n">
         <v>1306.011707534488</v>
@@ -7061,7 +7061,7 @@
         <v>1098.160207328955</v>
       </c>
       <c r="Y36" t="n">
-        <v>890.3999085640012</v>
+        <v>890.3999085640016</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>640.638169680758</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="C37" t="n">
-        <v>471.7019867528511</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="D37" t="n">
-        <v>471.7019867528511</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="E37" t="n">
-        <v>323.788893170458</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="F37" t="n">
-        <v>217.9199677091171</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="G37" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H37" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I37" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J37" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K37" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371202</v>
       </c>
       <c r="L37" t="n">
         <v>206.6297039190408</v>
       </c>
       <c r="M37" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N37" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O37" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P37" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q37" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R37" t="n">
-        <v>640.638169680758</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="S37" t="n">
-        <v>640.638169680758</v>
+        <v>271.9381101070627</v>
       </c>
       <c r="T37" t="n">
-        <v>640.638169680758</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="U37" t="n">
-        <v>640.638169680758</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="V37" t="n">
-        <v>640.638169680758</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="W37" t="n">
-        <v>640.638169680758</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="X37" t="n">
-        <v>640.638169680758</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="Y37" t="n">
-        <v>640.638169680758</v>
+        <v>48.81975253256328</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1398.355276762313</v>
+        <v>1580.993487907611</v>
       </c>
       <c r="C38" t="n">
-        <v>1398.355276762313</v>
+        <v>1212.0309709672</v>
       </c>
       <c r="D38" t="n">
-        <v>1040.089578155562</v>
+        <v>1212.0309709672</v>
       </c>
       <c r="E38" t="n">
-        <v>1040.089578155562</v>
+        <v>826.2427183689554</v>
       </c>
       <c r="F38" t="n">
-        <v>629.1036733659547</v>
+        <v>415.2568135793478</v>
       </c>
       <c r="G38" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H38" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I38" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J38" t="n">
         <v>145.966048569732</v>
@@ -7198,28 +7198,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R38" t="n">
-        <v>2371.897027894855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S38" t="n">
-        <v>2371.897027894855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T38" t="n">
-        <v>2152.282423226541</v>
+        <v>2221.373021959851</v>
       </c>
       <c r="U38" t="n">
-        <v>1898.502729238424</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="V38" t="n">
-        <v>1788.494608738124</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="W38" t="n">
-        <v>1788.494608738124</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="X38" t="n">
-        <v>1788.494608738124</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="Y38" t="n">
-        <v>1398.355276762313</v>
+        <v>1967.593327971733</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>922.6086434646021</v>
+        <v>988.7751048338188</v>
       </c>
       <c r="C39" t="n">
-        <v>748.1556141834751</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D39" t="n">
-        <v>599.2212045222238</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E39" t="n">
-        <v>439.9837495167684</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F39" t="n">
-        <v>293.4491915436533</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G39" t="n">
-        <v>155.4193039928149</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H39" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I39" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J39" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K39" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L39" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N39" t="n">
-        <v>1681.835959361802</v>
+        <v>1746.002248079784</v>
       </c>
       <c r="O39" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q39" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R39" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684676</v>
       </c>
       <c r="S39" t="n">
-        <v>2280.589895521037</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T39" t="n">
-        <v>2081.228572368206</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U39" t="n">
-        <v>1853.051068437921</v>
+        <v>1795.401172494433</v>
       </c>
       <c r="V39" t="n">
-        <v>1617.898960206178</v>
+        <v>1560.24906426269</v>
       </c>
       <c r="W39" t="n">
-        <v>1506.435779455157</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X39" t="n">
-        <v>1298.584279249624</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="Y39" t="n">
-        <v>1090.82398048467</v>
+        <v>1156.990441853887</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="C40" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="D40" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="E40" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="F40" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="G40" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H40" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I40" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J40" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K40" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371202</v>
       </c>
       <c r="L40" t="n">
         <v>206.6297039190408</v>
@@ -7356,28 +7356,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R40" t="n">
-        <v>487.9764913965093</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S40" t="n">
-        <v>271.9381101070627</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T40" t="n">
-        <v>48.81975253256327</v>
+        <v>438.7125468526473</v>
       </c>
       <c r="U40" t="n">
-        <v>48.81975253256327</v>
+        <v>438.7125468526473</v>
       </c>
       <c r="V40" t="n">
-        <v>48.81975253256327</v>
+        <v>438.7125468526473</v>
       </c>
       <c r="W40" t="n">
-        <v>48.81975253256327</v>
+        <v>438.7125468526473</v>
       </c>
       <c r="X40" t="n">
-        <v>48.81975253256327</v>
+        <v>438.7125468526473</v>
       </c>
       <c r="Y40" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091172</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1214.556426860827</v>
+        <v>1991.009791397003</v>
       </c>
       <c r="C41" t="n">
-        <v>845.5939099204151</v>
+        <v>1622.047274456592</v>
       </c>
       <c r="D41" t="n">
-        <v>845.5939099204151</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E41" t="n">
-        <v>459.8056573221708</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F41" t="n">
-        <v>48.81975253256327</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G41" t="n">
         <v>48.81975253256327</v>
@@ -7411,10 +7411,10 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J41" t="n">
-        <v>145.9660485697315</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K41" t="n">
-        <v>412.3079679977586</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L41" t="n">
         <v>795.0052981540041</v>
@@ -7444,19 +7444,19 @@
         <v>2440.987626628164</v>
       </c>
       <c r="U41" t="n">
-        <v>2364.76135716184</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V41" t="n">
-        <v>2364.76135716184</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W41" t="n">
-        <v>2364.76135716184</v>
+        <v>2377.609631461125</v>
       </c>
       <c r="X41" t="n">
-        <v>1991.29559890076</v>
+        <v>2377.609631461125</v>
       </c>
       <c r="Y41" t="n">
-        <v>1601.156266924949</v>
+        <v>2377.609631461125</v>
       </c>
     </row>
     <row r="42">
@@ -7466,40 +7466,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>722.1845715439331</v>
+        <v>950.3620754742187</v>
       </c>
       <c r="C42" t="n">
-        <v>547.7315422628061</v>
+        <v>775.9090461930917</v>
       </c>
       <c r="D42" t="n">
-        <v>398.7971326015548</v>
+        <v>626.9746365318405</v>
       </c>
       <c r="E42" t="n">
-        <v>239.5596775960993</v>
+        <v>467.737181526385</v>
       </c>
       <c r="F42" t="n">
-        <v>93.02511962298431</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G42" t="n">
-        <v>48.81975253256327</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H42" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I42" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J42" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K42" t="n">
-        <v>349.2772920404815</v>
+        <v>161.1406371339193</v>
       </c>
       <c r="L42" t="n">
-        <v>728.4044351658748</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M42" t="n">
-        <v>1222.807150561437</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N42" t="n">
         <v>1557.865593173221</v>
@@ -7523,19 +7523,19 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U42" t="n">
-        <v>1795.401172494432</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="V42" t="n">
-        <v>1560.249064262689</v>
+        <v>1788.426568192975</v>
       </c>
       <c r="W42" t="n">
-        <v>1306.011707534488</v>
+        <v>1534.189211464774</v>
       </c>
       <c r="X42" t="n">
-        <v>1098.160207328955</v>
+        <v>1326.337711259241</v>
       </c>
       <c r="Y42" t="n">
-        <v>890.3999085640012</v>
+        <v>1118.577412494287</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>196.8625555144901</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="C43" t="n">
-        <v>196.8625555144901</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="D43" t="n">
-        <v>196.8625555144901</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="E43" t="n">
-        <v>196.8625555144901</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="F43" t="n">
-        <v>196.8625555144901</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="G43" t="n">
-        <v>196.8625555144901</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H43" t="n">
         <v>48.81975253256327</v>
@@ -7596,25 +7596,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S43" t="n">
-        <v>424.5997883913116</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T43" t="n">
-        <v>196.8625555144901</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U43" t="n">
-        <v>196.8625555144901</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="V43" t="n">
-        <v>196.8625555144901</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="W43" t="n">
-        <v>196.8625555144901</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="X43" t="n">
-        <v>196.8625555144901</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="Y43" t="n">
-        <v>196.8625555144901</v>
+        <v>376.5611201562124</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1290.78269632715</v>
+        <v>1161.83622067797</v>
       </c>
       <c r="C44" t="n">
-        <v>1290.78269632715</v>
+        <v>792.873703737558</v>
       </c>
       <c r="D44" t="n">
-        <v>1290.78269632715</v>
+        <v>434.6080051308075</v>
       </c>
       <c r="E44" t="n">
-        <v>904.9944437289059</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F44" t="n">
-        <v>494.0085389392984</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G44" t="n">
-        <v>75.82087300987212</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H44" t="n">
         <v>48.81975253256327</v>
@@ -7681,19 +7681,19 @@
         <v>2440.987626628164</v>
       </c>
       <c r="U44" t="n">
-        <v>2440.987626628164</v>
+        <v>2291.344047988017</v>
       </c>
       <c r="V44" t="n">
-        <v>2440.987626628164</v>
+        <v>2291.344047988017</v>
       </c>
       <c r="W44" t="n">
-        <v>2440.987626628164</v>
+        <v>1938.575392717903</v>
       </c>
       <c r="X44" t="n">
-        <v>2067.521868367084</v>
+        <v>1938.575392717903</v>
       </c>
       <c r="Y44" t="n">
-        <v>1677.382536391272</v>
+        <v>1548.436060742092</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>816.0090920043505</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C45" t="n">
-        <v>641.5560627232235</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D45" t="n">
-        <v>492.6216530619722</v>
+        <v>456.4470285450433</v>
       </c>
       <c r="E45" t="n">
-        <v>333.3841980565167</v>
+        <v>297.2095735395878</v>
       </c>
       <c r="F45" t="n">
-        <v>186.8496400834017</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="G45" t="n">
-        <v>48.81975253256327</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H45" t="n">
         <v>48.81975253256327</v>
@@ -7727,25 +7727,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J45" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K45" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L45" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M45" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N45" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O45" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q45" t="n">
         <v>2440.987626628164</v>
@@ -7760,19 +7760,19 @@
         <v>2081.228572368206</v>
       </c>
       <c r="U45" t="n">
-        <v>1889.225692954849</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V45" t="n">
-        <v>1654.073584723107</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W45" t="n">
-        <v>1399.836227994905</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X45" t="n">
-        <v>1191.984727789372</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y45" t="n">
-        <v>984.2244290244184</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="46">
@@ -7833,13 +7833,13 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S46" t="n">
-        <v>631.2456083620993</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T46" t="n">
-        <v>631.2456083620993</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U46" t="n">
-        <v>631.2456083620993</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="V46" t="n">
         <v>376.5611201562124</v>
@@ -8060,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N3" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N6" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>233.1030882730268</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>289.3053491854095</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>289.30534918541</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>61.27660229194304</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9491,13 +9491,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>128.4257434817933</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9728,13 +9728,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>289.30534918541</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>128.4257434817933</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9965,16 +9965,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>287.1006199003857</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>51.40241131725696</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10208,7 +10208,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>128.4257434817937</v>
+        <v>193.2401765302593</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>289.30534918541</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>289.30534918541</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617152</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10916,13 +10916,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>203.8252941185856</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504499</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>139.2426449029007</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>289.3053491854098</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>136.5621861154923</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U11" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>33.50887059713733</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23345,19 +23345,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>40.31804732306578</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>40.77475074606097</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23421,25 +23421,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>3.098554305433481</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I13" t="n">
         <v>137.955174638333</v>
       </c>
       <c r="J13" t="n">
-        <v>52.22830032617341</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.44704598407323</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R13" t="n">
         <v>151.1350615014064</v>
@@ -23469,7 +23469,7 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T13" t="n">
-        <v>225.4598605480533</v>
+        <v>74.6980989261437</v>
       </c>
       <c r="U13" t="n">
         <v>286.2872966473816</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23503,7 +23503,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>8.776295115415962</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I14" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,16 +23548,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>6.630069068753784</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H15" t="n">
-        <v>105.5335559456492</v>
+        <v>61.77024252613235</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>101.3176750272836</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>52.22830032617343</v>
@@ -23697,16 +23697,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R16" t="n">
         <v>151.1350615014064</v>
       </c>
       <c r="S16" t="n">
-        <v>81.90997586121873</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T16" t="n">
-        <v>225.4598605480533</v>
+        <v>101.978756157086</v>
       </c>
       <c r="U16" t="n">
         <v>286.2872966473816</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23734,10 +23734,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>115.0376888789294</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H17" t="n">
-        <v>44.51337096569011</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>68.39969274597631</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S17" t="n">
         <v>179.4658614532381</v>
@@ -23788,7 +23788,7 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23816,7 +23816,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>39.62607740540737</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23828,7 +23828,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I18" t="n">
         <v>65.50479675552441</v>
@@ -23861,10 +23861,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>92.88627525581298</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>147.1724346807355</v>
+        <v>154.319275032048</v>
       </c>
       <c r="H19" t="n">
         <v>157.0547409226243</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R19" t="n">
         <v>151.1350615014064</v>
@@ -23946,19 +23946,19 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>220.8611977197494</v>
+        <v>338.716548069825</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I20" t="n">
         <v>160.4752923549255</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>179.4658614532381</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24062,13 +24062,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24101,7 +24101,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>61.77024252613191</v>
+        <v>12.22964479606705</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24110,7 +24110,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I22" t="n">
         <v>137.955174638333</v>
@@ -24177,13 +24177,13 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S22" t="n">
-        <v>10.49236597051677</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2872966473816</v>
+        <v>151.5565796077591</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24192,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24208,13 +24208,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24223,10 +24223,10 @@
         <v>414.005789270132</v>
       </c>
       <c r="H23" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>95.96940667383117</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S23" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>119.1777260825024</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24290,7 +24290,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24302,10 +24302,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24347,10 +24347,10 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>116.479562392348</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>92.88627525581308</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H25" t="n">
-        <v>32.60024201184356</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I25" t="n">
         <v>137.955174638333</v>
@@ -24408,22 +24408,22 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R25" t="n">
         <v>151.1350615014064</v>
       </c>
       <c r="S25" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>250.9963163946518</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24451,19 +24451,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>257.8581676583899</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,10 +24490,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>217.4184586216305</v>
@@ -24505,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>240.1419306732068</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24533,13 +24533,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>53.35061880807845</v>
       </c>
       <c r="H27" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>65.50479675552441</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>35.81287827175935</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>120.6496243413259</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H28" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>137.955174638333</v>
@@ -24645,16 +24645,16 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R28" t="n">
         <v>151.1350615014064</v>
       </c>
       <c r="S28" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U28" t="n">
         <v>286.2872966473816</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>220.1709767772669</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>177.1946848862643</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I29" t="n">
         <v>160.4752923549255</v>
@@ -24727,19 +24727,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>68.39969274597631</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S29" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T29" t="n">
-        <v>217.4184586216305</v>
+        <v>175.6392902913084</v>
       </c>
       <c r="U29" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24770,10 +24770,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>39.62607740540737</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -24809,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>158.7937537960548</v>
+        <v>53.35061880807824</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>157.0547409226243</v>
+        <v>115.1586430201593</v>
       </c>
       <c r="I31" t="n">
         <v>137.955174638333</v>
@@ -24882,25 +24882,25 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R31" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>213.8779974765521</v>
       </c>
       <c r="T31" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>135.5255350254722</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24922,19 +24922,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>118.0042132670098</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H32" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>160.4752923549255</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>179.4658614532381</v>
@@ -24976,13 +24976,13 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>117.0955721244411</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25013,7 +25013,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>65.50479675552441</v>
@@ -25043,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S33" t="n">
-        <v>35.81287827175935</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25061,7 +25061,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>141.3464342174086</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25077,22 +25077,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>26.51817066446483</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I34" t="n">
         <v>137.955174638333</v>
@@ -25119,13 +25119,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R34" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>98.8756810938213</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T34" t="n">
         <v>225.4598605480533</v>
@@ -25156,22 +25156,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>164.9954154924715</v>
       </c>
       <c r="I35" t="n">
         <v>160.4752923549255</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>68.39969274597631</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S35" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T35" t="n">
-        <v>147.1486795722554</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U35" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25247,7 +25247,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>92.88627525581317</v>
+        <v>92.88627525581273</v>
       </c>
       <c r="H36" t="n">
         <v>105.5335559456492</v>
@@ -25314,19 +25314,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>40.61081181620382</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H37" t="n">
         <v>157.0547409226243</v>
@@ -25356,16 +25356,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R37" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.4598605480533</v>
+        <v>4.572686549298879</v>
       </c>
       <c r="U37" t="n">
         <v>286.2872966473816</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>51.23309883381529</v>
       </c>
       <c r="H38" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S38" t="n">
         <v>179.4658614532381</v>
@@ -25450,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>218.8442191748388</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25490,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25532,13 +25532,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>141.3464342174087</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>58.15164275350881</v>
       </c>
     </row>
     <row r="40">
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>157.0547409226243</v>
@@ -25596,13 +25596,13 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T40" t="n">
-        <v>4.572686549298851</v>
+        <v>25.55349394822346</v>
       </c>
       <c r="U40" t="n">
         <v>286.2872966473816</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>326.1924309016296</v>
@@ -25684,19 +25684,19 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U41" t="n">
-        <v>175.7778902765763</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>286.4967535020453</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25718,16 +25718,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>38.02889906600397</v>
       </c>
       <c r="G42" t="n">
-        <v>92.88627525581317</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25763,7 +25763,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>10.49236597051677</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>137.955174638333</v>
@@ -25836,7 +25836,7 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>216.161224842581</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25867,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H44" t="n">
-        <v>299.4613216290938</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I44" t="n">
         <v>160.4752923549255</v>
@@ -25921,16 +25921,16 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2418970482362</v>
+        <v>103.0947541944915</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25955,13 +25955,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>4.69684554207879</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>65.50479675552441</v>
@@ -26000,7 +26000,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>35.81287827175942</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26073,16 +26073,16 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S46" t="n">
-        <v>204.5793617710799</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T46" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2872966473816</v>
+        <v>250.3108781661346</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>578182.0985186811</v>
+        <v>578182.0985186812</v>
       </c>
     </row>
     <row r="6">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>578182.0985186811</v>
+        <v>578182.0985186812</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>578182.0985186811</v>
+        <v>578182.0985186812</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>578182.0985186812</v>
+        <v>578182.0985186814</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>578182.0985186811</v>
+        <v>578182.0985186812</v>
       </c>
     </row>
     <row r="16">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049981</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="E2" t="n">
         <v>379599.350840495</v>
       </c>
       <c r="F2" t="n">
-        <v>379599.350840495</v>
+        <v>379599.3508404949</v>
       </c>
       <c r="G2" t="n">
         <v>379599.350840495</v>
       </c>
       <c r="H2" t="n">
-        <v>379599.3508404949</v>
+        <v>379599.350840495</v>
       </c>
       <c r="I2" t="n">
-        <v>379599.3508404951</v>
+        <v>379599.350840495</v>
       </c>
       <c r="J2" t="n">
-        <v>379599.3508404949</v>
+        <v>379599.3508404948</v>
       </c>
       <c r="K2" t="n">
-        <v>379599.3508404949</v>
+        <v>379599.350840495</v>
       </c>
       <c r="L2" t="n">
         <v>379599.350840495</v>
@@ -26349,10 +26349,10 @@
         <v>379599.3508404949</v>
       </c>
       <c r="N2" t="n">
-        <v>379599.350840495</v>
+        <v>379599.3508404951</v>
       </c>
       <c r="O2" t="n">
-        <v>379599.3508404947</v>
+        <v>379599.3508404949</v>
       </c>
       <c r="P2" t="n">
         <v>379599.3508404949</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>369435.2991327803</v>
+        <v>369435.2991327802</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>92014.24528109311</v>
+        <v>92014.24528109308</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26456,7 +26456,7 @@
         <v>9246.781534682701</v>
       </c>
       <c r="O4" t="n">
-        <v>9246.781534682697</v>
+        <v>9246.781534682699</v>
       </c>
       <c r="P4" t="n">
         <v>9246.781534682701</v>
@@ -26478,7 +26478,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>44136.03802033843</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="F5" t="n">
         <v>44136.03802033842</v>
@@ -26502,10 +26502,10 @@
         <v>44136.03802033842</v>
       </c>
       <c r="M5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033843</v>
       </c>
       <c r="N5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033843</v>
       </c>
       <c r="O5" t="n">
         <v>44136.03802033842</v>
@@ -26524,46 +26524,46 @@
         <v>158185.899905887</v>
       </c>
       <c r="C6" t="n">
-        <v>238955.3314374347</v>
+        <v>238955.3314374346</v>
       </c>
       <c r="D6" t="n">
-        <v>238955.3314374348</v>
+        <v>238955.3314374349</v>
       </c>
       <c r="E6" t="n">
-        <v>-50187.69242103871</v>
+        <v>-43915.6603046795</v>
       </c>
       <c r="F6" t="n">
-        <v>319247.6067117418</v>
+        <v>325519.6388281005</v>
       </c>
       <c r="G6" t="n">
-        <v>319247.6067117417</v>
+        <v>325519.6388281006</v>
       </c>
       <c r="H6" t="n">
-        <v>319247.6067117415</v>
+        <v>325519.6388281007</v>
       </c>
       <c r="I6" t="n">
-        <v>319247.6067117417</v>
+        <v>325519.6388281006</v>
       </c>
       <c r="J6" t="n">
-        <v>256187.6641126352</v>
+        <v>262459.6962289942</v>
       </c>
       <c r="K6" t="n">
-        <v>319247.6067117415</v>
+        <v>325519.6388281006</v>
       </c>
       <c r="L6" t="n">
-        <v>319247.6067117416</v>
+        <v>325519.6388281007</v>
       </c>
       <c r="M6" t="n">
-        <v>227233.3614306483</v>
+        <v>233505.3935470074</v>
       </c>
       <c r="N6" t="n">
-        <v>319247.6067117417</v>
+        <v>325519.6388281008</v>
       </c>
       <c r="O6" t="n">
-        <v>319247.6067117414</v>
+        <v>325519.6388281005</v>
       </c>
       <c r="P6" t="n">
-        <v>319247.6067117415</v>
+        <v>325519.6388281005</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>322.6158759445109</v>
+        <v>322.6158759445108</v>
       </c>
       <c r="F3" t="n">
         <v>322.6158759445108</v>
@@ -26798,7 +26798,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>610.246906657041</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="F4" t="n">
         <v>610.2469066570409</v>
@@ -26822,10 +26822,10 @@
         <v>610.2469066570409</v>
       </c>
       <c r="M4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.246906657041</v>
       </c>
       <c r="N4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.246906657041</v>
       </c>
       <c r="O4" t="n">
         <v>610.2469066570409</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>322.6158759445109</v>
+        <v>322.6158759445108</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>369.232617779382</v>
+        <v>369.2326177793819</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.232617779382</v>
+        <v>369.2326177793819</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.232617779382</v>
+        <v>369.2326177793819</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>284.4427772960522</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>335.9462234883513</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>25.57816959705298</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27475,10 +27475,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,19 +27508,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>76.17785428862305</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>37.69799725872717</v>
+        <v>18.14994616795082</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,16 +27627,16 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>374.8264583819999</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>192.1783936941173</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27700,10 +27700,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>126.3942969708654</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27715,7 +27715,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>75.72709062278422</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,13 +27745,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27782,10 +27782,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>38.23792762219048</v>
       </c>
       <c r="F7" t="n">
-        <v>37.22501299855256</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27876,7 +27876,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>247.5928146342925</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>301.5209461972391</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27931,28 +27931,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>92.32073141729907</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>23.84473281690219</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,10 +27982,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -28028,13 +28028,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>144.6688768646272</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>178.3269633122123</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31758,40 +31758,40 @@
         <v>13.28237121413757</v>
       </c>
       <c r="I11" t="n">
-        <v>50.00059721548045</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J11" t="n">
         <v>110.0768611093284</v>
       </c>
       <c r="K11" t="n">
-        <v>164.9766803203079</v>
+        <v>164.9766803203078</v>
       </c>
       <c r="L11" t="n">
-        <v>204.6681601733203</v>
+        <v>204.6681601733202</v>
       </c>
       <c r="M11" t="n">
-        <v>227.7327635253934</v>
+        <v>227.7327635253933</v>
       </c>
       <c r="N11" t="n">
-        <v>231.4177177265084</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O11" t="n">
-        <v>218.5211886152592</v>
+        <v>218.5211886152591</v>
       </c>
       <c r="P11" t="n">
         <v>186.5027788167461</v>
       </c>
       <c r="Q11" t="n">
-        <v>140.0558197925741</v>
+        <v>140.055819792574</v>
       </c>
       <c r="R11" t="n">
-        <v>81.46942519517341</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S11" t="n">
-        <v>29.55420813300722</v>
+        <v>29.5542081330072</v>
       </c>
       <c r="T11" t="n">
-        <v>5.67739094250089</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U11" t="n">
         <v>0.1037558596002446</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6939284878806462</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H12" t="n">
-        <v>6.701888290847295</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I12" t="n">
-        <v>23.89183609589067</v>
+        <v>23.89183609589066</v>
       </c>
       <c r="J12" t="n">
-        <v>65.5610243747237</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K12" t="n">
         <v>112.054233062727</v>
       </c>
       <c r="L12" t="n">
-        <v>150.6707447040851</v>
+        <v>150.670744704085</v>
       </c>
       <c r="M12" t="n">
         <v>175.8256523897584</v>
       </c>
       <c r="N12" t="n">
-        <v>180.4792342229581</v>
+        <v>180.479234222958</v>
       </c>
       <c r="O12" t="n">
-        <v>165.1032398336027</v>
+        <v>165.1032398336026</v>
       </c>
       <c r="P12" t="n">
-        <v>132.5099057252087</v>
+        <v>132.5099057252086</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.5793627687646</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R12" t="n">
-        <v>43.08443716858961</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S12" t="n">
-        <v>12.88941730778305</v>
+        <v>12.88941730778304</v>
       </c>
       <c r="T12" t="n">
-        <v>2.79701877351892</v>
+        <v>2.797018773518918</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0456531899921478</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5817663336704295</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H13" t="n">
-        <v>5.172431584815277</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I13" t="n">
-        <v>17.49530028892529</v>
+        <v>17.49530028892528</v>
       </c>
       <c r="J13" t="n">
-        <v>41.13087979049936</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K13" t="n">
-        <v>67.5906704028008</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L13" t="n">
-        <v>86.49278746223824</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M13" t="n">
-        <v>91.19451719526559</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N13" t="n">
-        <v>89.02611540613043</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O13" t="n">
-        <v>82.23002687188946</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P13" t="n">
-        <v>70.36199366501265</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.71499726762115</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R13" t="n">
         <v>26.15832987576312</v>
       </c>
       <c r="S13" t="n">
-        <v>10.13860056042012</v>
+        <v>10.13860056042011</v>
       </c>
       <c r="T13" t="n">
-        <v>2.485728880228198</v>
+        <v>2.485728880228197</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03173270910929619</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H14" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I14" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J14" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K14" t="n">
         <v>164.9766803203078</v>
@@ -32010,7 +32010,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N14" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O14" t="n">
         <v>218.5211886152591</v>
@@ -32022,13 +32022,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R14" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S14" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T14" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U14" t="n">
         <v>0.1037558596002446</v>
@@ -32068,25 +32068,25 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H15" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I15" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J15" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K15" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L15" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M15" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N15" t="n">
         <v>180.479234222958</v>
@@ -32098,10 +32098,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R15" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S15" t="n">
         <v>12.88941730778304</v>
@@ -32110,7 +32110,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,40 +32147,40 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H16" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I16" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J16" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K16" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L16" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M16" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N16" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O16" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P16" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R16" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S16" t="n">
         <v>10.13860056042011</v>
@@ -32189,7 +32189,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H17" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I17" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J17" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K17" t="n">
         <v>164.9766803203078</v>
@@ -32247,7 +32247,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N17" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O17" t="n">
         <v>218.5211886152591</v>
@@ -32259,13 +32259,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R17" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S17" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T17" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U17" t="n">
         <v>0.1037558596002446</v>
@@ -32305,25 +32305,25 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H18" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I18" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J18" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K18" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L18" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M18" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N18" t="n">
         <v>180.479234222958</v>
@@ -32335,10 +32335,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R18" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S18" t="n">
         <v>12.88941730778304</v>
@@ -32347,7 +32347,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,40 +32384,40 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H19" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I19" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J19" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K19" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L19" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M19" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N19" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O19" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P19" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R19" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S19" t="n">
         <v>10.13860056042011</v>
@@ -32426,7 +32426,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H23" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I23" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J23" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K23" t="n">
         <v>164.9766803203078</v>
@@ -32721,7 +32721,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N23" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O23" t="n">
         <v>218.5211886152591</v>
@@ -32733,13 +32733,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R23" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S23" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T23" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U23" t="n">
         <v>0.1037558596002446</v>
@@ -32779,25 +32779,25 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H24" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I24" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J24" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K24" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L24" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M24" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N24" t="n">
         <v>180.479234222958</v>
@@ -32809,10 +32809,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R24" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S24" t="n">
         <v>12.88941730778304</v>
@@ -32821,7 +32821,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,40 +32858,40 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H25" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I25" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J25" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K25" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L25" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M25" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N25" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O25" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P25" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R25" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S25" t="n">
         <v>10.13860056042011</v>
@@ -32900,7 +32900,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H26" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I26" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J26" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K26" t="n">
         <v>164.9766803203078</v>
@@ -32958,7 +32958,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N26" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O26" t="n">
         <v>218.5211886152591</v>
@@ -32970,13 +32970,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R26" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S26" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T26" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U26" t="n">
         <v>0.1037558596002446</v>
@@ -33016,25 +33016,25 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H27" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I27" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J27" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K27" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L27" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M27" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N27" t="n">
         <v>180.479234222958</v>
@@ -33046,10 +33046,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R27" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S27" t="n">
         <v>12.88941730778304</v>
@@ -33058,7 +33058,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,40 +33095,40 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H28" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I28" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J28" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K28" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L28" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M28" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N28" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O28" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P28" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R28" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S28" t="n">
         <v>10.13860056042011</v>
@@ -33137,7 +33137,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H29" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I29" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J29" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K29" t="n">
         <v>164.9766803203078</v>
@@ -33195,7 +33195,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N29" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O29" t="n">
         <v>218.5211886152591</v>
@@ -33207,13 +33207,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R29" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S29" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T29" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U29" t="n">
         <v>0.1037558596002446</v>
@@ -33253,25 +33253,25 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H30" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I30" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J30" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K30" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L30" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M30" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N30" t="n">
         <v>180.479234222958</v>
@@ -33283,10 +33283,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R30" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S30" t="n">
         <v>12.88941730778304</v>
@@ -33295,7 +33295,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,40 +33332,40 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H31" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I31" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J31" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K31" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L31" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M31" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N31" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O31" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P31" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R31" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S31" t="n">
         <v>10.13860056042011</v>
@@ -33374,7 +33374,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H32" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I32" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J32" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K32" t="n">
         <v>164.9766803203078</v>
@@ -33432,7 +33432,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N32" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O32" t="n">
         <v>218.5211886152591</v>
@@ -33444,13 +33444,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R32" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S32" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T32" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U32" t="n">
         <v>0.1037558596002446</v>
@@ -33490,25 +33490,25 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H33" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I33" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J33" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K33" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L33" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M33" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N33" t="n">
         <v>180.479234222958</v>
@@ -33520,10 +33520,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R33" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S33" t="n">
         <v>12.88941730778304</v>
@@ -33532,7 +33532,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,40 +33569,40 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H34" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I34" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J34" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K34" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L34" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M34" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N34" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O34" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P34" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R34" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S34" t="n">
         <v>10.13860056042011</v>
@@ -33611,7 +33611,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H35" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I35" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J35" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K35" t="n">
         <v>164.9766803203078</v>
@@ -33669,7 +33669,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N35" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O35" t="n">
         <v>218.5211886152591</v>
@@ -33681,13 +33681,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R35" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S35" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T35" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U35" t="n">
         <v>0.1037558596002446</v>
@@ -33727,25 +33727,25 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H36" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I36" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J36" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K36" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L36" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M36" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N36" t="n">
         <v>180.479234222958</v>
@@ -33757,10 +33757,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R36" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S36" t="n">
         <v>12.88941730778304</v>
@@ -33769,7 +33769,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,40 +33806,40 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H37" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I37" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J37" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K37" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L37" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M37" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N37" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O37" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P37" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R37" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S37" t="n">
         <v>10.13860056042011</v>
@@ -33848,7 +33848,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34780,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N3" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>113.3808631277494</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>98.12757175471589</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K11" t="n">
-        <v>269.0322418464921</v>
+        <v>269.032241846492</v>
       </c>
       <c r="L11" t="n">
-        <v>386.5629597537835</v>
+        <v>386.5629597537834</v>
       </c>
       <c r="M11" t="n">
         <v>446.9000637909531</v>
       </c>
       <c r="N11" t="n">
-        <v>439.3515785419016</v>
+        <v>439.3515785419015</v>
       </c>
       <c r="O11" t="n">
-        <v>369.2231584563178</v>
+        <v>369.2231584563177</v>
       </c>
       <c r="P11" t="n">
         <v>277.0684912329592</v>
       </c>
       <c r="Q11" t="n">
-        <v>130.0651205780293</v>
+        <v>130.0651205780292</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>64.81443304846584</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K12" t="n">
-        <v>238.6780311009466</v>
+        <v>207.3158823613948</v>
       </c>
       <c r="L12" t="n">
         <v>382.95671022767</v>
@@ -35500,16 +35500,16 @@
         <v>499.39668221774</v>
       </c>
       <c r="N12" t="n">
-        <v>338.4428713250343</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O12" t="n">
-        <v>416.3693146658878</v>
+        <v>416.3693146658877</v>
       </c>
       <c r="P12" t="n">
-        <v>316.9982669508156</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.6748764185922</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,10 +35570,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>45.32117857691794</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L13" t="n">
-        <v>114.0828127225544</v>
+        <v>114.0828127225543</v>
       </c>
       <c r="M13" t="n">
         <v>130.7783941571062</v>
@@ -35585,7 +35585,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P13" t="n">
-        <v>67.64055292990614</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K14" t="n">
         <v>269.032241846492</v>
@@ -35655,7 +35655,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M14" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N14" t="n">
         <v>439.3515785419015</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>64.8144330484658</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K15" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L15" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M15" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N15" t="n">
-        <v>338.4428713250347</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O15" t="n">
         <v>416.3693146658877</v>
@@ -35807,13 +35807,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L16" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M16" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N16" t="n">
         <v>133.158287785359</v>
@@ -35822,7 +35822,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P16" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K17" t="n">
         <v>269.032241846492</v>
@@ -35892,7 +35892,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M17" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N17" t="n">
         <v>439.3515785419015</v>
@@ -35965,13 +35965,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L18" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M18" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N18" t="n">
         <v>528.4798964831782</v>
@@ -36044,13 +36044,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L19" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M19" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N19" t="n">
         <v>133.158287785359</v>
@@ -36059,7 +36059,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P19" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36211,13 +36211,13 @@
         <v>499.39668221774</v>
       </c>
       <c r="N21" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O21" t="n">
         <v>416.3693146658877</v>
       </c>
       <c r="P21" t="n">
-        <v>126.9612417926717</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q21" t="n">
         <v>158.6748764185921</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K23" t="n">
         <v>269.032241846492</v>
@@ -36366,7 +36366,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M23" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N23" t="n">
         <v>439.3515785419015</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>64.8144330484658</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K24" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L24" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M24" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N24" t="n">
-        <v>338.4428713250347</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O24" t="n">
         <v>416.3693146658877</v>
       </c>
       <c r="P24" t="n">
-        <v>316.9982669508155</v>
+        <v>126.9612417926717</v>
       </c>
       <c r="Q24" t="n">
         <v>158.6748764185921</v>
@@ -36518,13 +36518,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L25" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M25" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N25" t="n">
         <v>133.158287785359</v>
@@ -36533,7 +36533,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P25" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K26" t="n">
         <v>269.032241846492</v>
@@ -36603,7 +36603,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M26" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N26" t="n">
         <v>439.3515785419015</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>64.8144330484658</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K27" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L27" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M27" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N27" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O27" t="n">
         <v>416.3693146658877</v>
       </c>
       <c r="P27" t="n">
-        <v>285.636118211264</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,13 +36755,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L28" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M28" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N28" t="n">
         <v>133.158287785359</v>
@@ -36770,7 +36770,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P28" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K29" t="n">
         <v>269.032241846492</v>
@@ -36840,7 +36840,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M29" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N29" t="n">
         <v>439.3515785419015</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L30" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M30" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N30" t="n">
         <v>528.4798964831782</v>
@@ -36928,7 +36928,7 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P30" t="n">
-        <v>126.9612417926721</v>
+        <v>191.7756748411377</v>
       </c>
       <c r="Q30" t="n">
         <v>158.6748764185921</v>
@@ -36992,13 +36992,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L31" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M31" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N31" t="n">
         <v>133.158287785359</v>
@@ -37007,7 +37007,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P31" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K32" t="n">
         <v>269.032241846492</v>
@@ -37077,7 +37077,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M32" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N32" t="n">
         <v>439.3515785419015</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L33" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M33" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N33" t="n">
-        <v>338.4428713250347</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O33" t="n">
         <v>416.3693146658877</v>
@@ -37168,7 +37168,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q33" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,13 +37229,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L34" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M34" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N34" t="n">
         <v>133.158287785359</v>
@@ -37244,7 +37244,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P34" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K35" t="n">
         <v>269.032241846492</v>
@@ -37314,7 +37314,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M35" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N35" t="n">
         <v>439.3515785419015</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L36" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M36" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N36" t="n">
-        <v>338.4428713250347</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O36" t="n">
         <v>416.3693146658877</v>
@@ -37405,7 +37405,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q36" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891457</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,13 +37466,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L37" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M37" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N37" t="n">
         <v>133.158287785359</v>
@@ -37481,7 +37481,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P37" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K39" t="n">
         <v>238.6780311009466</v>
@@ -37636,13 +37636,13 @@
         <v>528.4798964831782</v>
       </c>
       <c r="O39" t="n">
-        <v>416.3693146658877</v>
+        <v>226.3322895077438</v>
       </c>
       <c r="P39" t="n">
         <v>316.9982669508155</v>
       </c>
       <c r="Q39" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>98.12757175471535</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K41" t="n">
         <v>269.032241846492</v>
       </c>
       <c r="L41" t="n">
-        <v>386.5629597537834</v>
+        <v>386.5629597537828</v>
       </c>
       <c r="M41" t="n">
         <v>446.9000637909531</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>238.6780311009466</v>
+        <v>113.4554389912687</v>
       </c>
       <c r="L42" t="n">
         <v>382.95671022767</v>
@@ -37870,7 +37870,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N42" t="n">
-        <v>338.4428713250345</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O42" t="n">
         <v>416.3693146658877</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K45" t="n">
         <v>238.6780311009466</v>
@@ -38107,7 +38107,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N45" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O45" t="n">
         <v>416.3693146658877</v>
@@ -38116,7 +38116,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q45" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
